--- a/src/resources/Book1.xlsx
+++ b/src/resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cevik\IdeaProjects\AutomationExerciseCucumberProject\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35338B23-4D26-4EF0-BA94-4D2C56D7DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B598E37-22D9-4EA5-9B8C-A49F510C05B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E78BDA0-D41E-46E6-B79D-28F77F5EDE2D}"/>
+    <workbookView xWindow="6000" yWindow="870" windowWidth="20940" windowHeight="14250" xr2:uid="{3E78BDA0-D41E-46E6-B79D-28F77F5EDE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,16 +386,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFD5527-BD8A-4482-9D3E-36114EE3D331}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1212</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
